--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1792.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1792.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.181142562363863</v>
+        <v>0.7115757465362549</v>
       </c>
       <c r="B1">
-        <v>2.323950235067162</v>
+        <v>1.462210178375244</v>
       </c>
       <c r="C1">
-        <v>5.146563814849459</v>
+        <v>4.195500373840332</v>
       </c>
       <c r="D1">
-        <v>2.50869242920671</v>
+        <v>2.405681133270264</v>
       </c>
       <c r="E1">
-        <v>1.105302310860172</v>
+        <v>0.5585829615592957</v>
       </c>
     </row>
   </sheetData>
